--- a/csv2sql/QA Tests/filedtest_reviewed.xlsx
+++ b/csv2sql/QA Tests/filedtest_reviewed.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsbrown/Prog/python/csv2sql/QA Tests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3E2D11-3305-5F48-844C-D9FEE27D4985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13960" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filedtest.tsv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,9 +36,6 @@
     <t>Database</t>
   </si>
   <si>
-    <t xml:space="preserve">         AWSSiteCode</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -90,12 +93,6 @@
     <t xml:space="preserve">     FinalReportDate</t>
   </si>
   <si>
-    <t xml:space="preserve">       IPSGOEngineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         IPSGOSelect</t>
-  </si>
-  <si>
     <t xml:space="preserve">               InDev</t>
   </si>
   <si>
@@ -304,13 +301,22 @@
   </si>
   <si>
     <t>Internal Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         SiteCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Select</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,6 +396,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -714,14 +728,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62:D64"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
@@ -740,993 +754,993 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
